--- a/school.xlsx
+++ b/school.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$30</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -470,6 +471,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -491,6 +493,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -578,7 +581,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/school.xlsx
+++ b/school.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\ppdb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="school" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$30</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$N$30</definedName>
-  </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -462,38 +462,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="[$Rp-421]#,##0.00;[Red]&quot;(&quot;[$Rp-421]#,##0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -511,7 +513,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -519,91 +521,356 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="5">
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="3"/>
+    <cellStyle name="Result2" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:N30" totalsRowShown="0">
+  <autoFilter ref="A1:N30"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="code"/>
+    <tableColumn id="4" name="level"/>
+    <tableColumn id="5" name="address"/>
+    <tableColumn id="6" name="address_district"/>
+    <tableColumn id="7" name="address_subdistrict"/>
+    <tableColumn id="8" name="address_rw"/>
+    <tableColumn id="9" name="address_rt"/>
+    <tableColumn id="10" name="is_border"/>
+    <tableColumn id="11" name="foreigner_percentage"/>
+    <tableColumn id="12" name="option_i"/>
+    <tableColumn id="13" name="option"/>
+    <tableColumn id="14" name="option_ids"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.46428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="101.928571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="102.625" customWidth="1"/>
+    <col min="14" max="14" width="18.25" customWidth="1"/>
+    <col min="15" max="1024" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,1198 +914,1197 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>380</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>3001</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>381</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>3002</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>382</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>3003</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>383</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>3004</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" s="0" t="s">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>384</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>3005</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>385</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>3006</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>386</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>3007</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>387</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>3008</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>388</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>3009</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M10" s="0" t="s">
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>389</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>3010</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M11" s="0" t="s">
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>390</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>3011</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" s="0" t="s">
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>391</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>3012</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="0" t="n">
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M13" s="0" t="s">
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>392</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>3013</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>25</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" s="0" t="s">
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>393</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>3014</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M15" s="0" t="s">
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>394</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>3015</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>20</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" s="0" t="s">
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
         <v>83</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>395</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>3016</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" s="0" t="s">
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>396</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>3017</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" s="0" t="s">
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>397</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>3018</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>12</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" s="0" t="s">
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>398</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>3019</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>3</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" s="0" t="s">
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
         <v>100</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>399</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>3020</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" s="0" t="s">
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="N21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>400</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>3021</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>21</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" s="0" t="s">
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>401</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>3022</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" s="0" t="s">
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
         <v>113</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>402</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>3023</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M24" s="0" t="s">
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
         <v>118</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>403</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>3024</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M25" s="0" t="s">
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
         <v>123</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>404</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>3025</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="0" t="s">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>7</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>6</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M26" s="0" t="s">
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>405</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>3026</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="I27" s="0" t="n">
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
         <v>6</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>20</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M27" s="0" t="s">
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
         <v>133</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>406</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>3027</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>137</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>2</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M28" s="0" t="s">
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>407</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>3028</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="0" t="n">
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29">
         <v>100</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M29" s="0" t="s">
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
         <v>141</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>408</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>3029</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="0" t="n">
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
         <v>100</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M30" s="0" t="s">
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
         <v>144</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N30"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>